--- a/data/trans_orig/P19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6186</v>
+        <v>5739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20515</v>
+        <v>18724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03196418551893943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0172116573832875</v>
+        <v>0.01596960107847561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05707975830118389</v>
+        <v>0.05209898090330117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3695</v>
+        <v>3753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14773</v>
+        <v>14662</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02138580681884342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009820831150067592</v>
+        <v>0.009975724474916098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03926465276173209</v>
+        <v>0.03896931434478342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>19534</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12708</v>
+        <v>12525</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30234</v>
+        <v>28628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02655384212172801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01727396623179054</v>
+        <v>0.0170261688600962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04109771296230841</v>
+        <v>0.03891457151905504</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>347913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>338886</v>
+        <v>340677</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>353215</v>
+        <v>353662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9680358144810606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9429202416988162</v>
+        <v>0.9479010190966989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9827883426167126</v>
+        <v>0.9840303989215244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>386</v>
@@ -836,19 +836,19 @@
         <v>368206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>361479</v>
+        <v>361590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>372557</v>
+        <v>372499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9786141931811566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9607353472382679</v>
+        <v>0.9610306856552167</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901791688499324</v>
+        <v>0.990024275525084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>736</v>
@@ -857,19 +857,19 @@
         <v>716119</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705419</v>
+        <v>707025</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>722945</v>
+        <v>723128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.973446157878272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9589022870376911</v>
+        <v>0.9610854284809451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9827260337682094</v>
+        <v>0.982973831139904</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11047</v>
+        <v>10876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31112</v>
+        <v>30442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03325428709937023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01918558511285971</v>
+        <v>0.01888919340558368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05403440367889514</v>
+        <v>0.05287107773398211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>20864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12908</v>
+        <v>13778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30823</v>
+        <v>31154</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03809399494809791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02356794286101859</v>
+        <v>0.02515565378210426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05627717605652133</v>
+        <v>0.05687979843771401</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -1003,19 +1003,19 @@
         <v>40012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28484</v>
+        <v>28413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54377</v>
+        <v>54477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0356136749229043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02535310986240896</v>
+        <v>0.02528994152318672</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04839998039280814</v>
+        <v>0.04848918183079155</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>556634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>544669</v>
+        <v>545339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>564734</v>
+        <v>564905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9667457129006297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9459655963211046</v>
+        <v>0.9471289222660179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9808144148871403</v>
+        <v>0.9811108065944162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>498</v>
@@ -1053,19 +1053,19 @@
         <v>526844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516885</v>
+        <v>516554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534800</v>
+        <v>533930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.961906005051902</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9437228239434787</v>
+        <v>0.9431202015622865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9764320571389815</v>
+        <v>0.9748443462178958</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1035</v>
@@ -1074,19 +1074,19 @@
         <v>1083477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1069112</v>
+        <v>1069012</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1095005</v>
+        <v>1095076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9643863250770957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.951600019607192</v>
+        <v>0.9515108181692081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9746468901375914</v>
+        <v>0.9747100584768132</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>33732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23805</v>
+        <v>24129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47636</v>
+        <v>46173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06707130290644525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04733305762804044</v>
+        <v>0.04797562701086229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09471590429874999</v>
+        <v>0.09180825837916004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1199,19 +1199,19 @@
         <v>50584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38536</v>
+        <v>39110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67265</v>
+        <v>66021</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08380897177441879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06384773265530395</v>
+        <v>0.06479906733954334</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1114458573042574</v>
+        <v>0.1093857115028662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1220,19 +1220,19 @@
         <v>84316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67364</v>
+        <v>67129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103548</v>
+        <v>102873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0762012528596487</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06088071055412764</v>
+        <v>0.06066809542579091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09358189257837918</v>
+        <v>0.09297179384177812</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>469201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455297</v>
+        <v>456760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479128</v>
+        <v>478804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9329286970935547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.90528409570125</v>
+        <v>0.9081917416208398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9526669423719595</v>
+        <v>0.9520243729891378</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -1270,19 +1270,19 @@
         <v>552981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>536300</v>
+        <v>537544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565029</v>
+        <v>564455</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9161910282255812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8885541426957425</v>
+        <v>0.8906142884971338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.936152267344696</v>
+        <v>0.9352009326604571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>979</v>
@@ -1291,19 +1291,19 @@
         <v>1022181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1002949</v>
+        <v>1003624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1039133</v>
+        <v>1039368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9237987471403513</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.906418107421621</v>
+        <v>0.9070282061582218</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9391192894458724</v>
+        <v>0.9393319045742089</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>52881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38389</v>
+        <v>39568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66651</v>
+        <v>67740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1306526726699937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09484693751710074</v>
+        <v>0.09776018477855626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1646717865648029</v>
+        <v>0.1673623935233324</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1416,19 +1416,19 @@
         <v>55515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42941</v>
+        <v>43091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70288</v>
+        <v>70695</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1264040396735956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09777406082814021</v>
+        <v>0.09811536969252108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1600418688233091</v>
+        <v>0.160968697337487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -1437,19 +1437,19 @@
         <v>108396</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89780</v>
+        <v>87948</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129105</v>
+        <v>129132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1284416725674783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1063826502104825</v>
+        <v>0.1042123947296737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1529804685599041</v>
+        <v>0.1530120335465023</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338097</v>
+        <v>337008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366359</v>
+        <v>365180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8693473273300063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8353282134351973</v>
+        <v>0.8326376064766676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9051530624828993</v>
+        <v>0.9022398152214438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>374</v>
@@ -1487,19 +1487,19 @@
         <v>383670</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368897</v>
+        <v>368490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>396244</v>
+        <v>396094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8735959603264044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8399581311766912</v>
+        <v>0.839031302662514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9022259391718599</v>
+        <v>0.9018846303074793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>706</v>
@@ -1508,19 +1508,19 @@
         <v>735537</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714828</v>
+        <v>714801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>754153</v>
+        <v>755985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8715583274325217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8470195314400959</v>
+        <v>0.8469879664534977</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8936173497895175</v>
+        <v>0.8957876052703261</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>71160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56798</v>
+        <v>57766</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84785</v>
+        <v>84597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2612821731096021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2085472670344325</v>
+        <v>0.2121017779797088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.311309298048812</v>
+        <v>0.310618648503686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -1633,19 +1633,19 @@
         <v>77272</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62977</v>
+        <v>62981</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92205</v>
+        <v>93173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.242168918293254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1973699031713716</v>
+        <v>0.1973822739388515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2889700233534546</v>
+        <v>0.292004476748681</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -1654,19 +1654,19 @@
         <v>148432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130424</v>
+        <v>127806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171489</v>
+        <v>168385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2509704257281213</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2205224153960633</v>
+        <v>0.2160969241532253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2899557318082365</v>
+        <v>0.2847085205918249</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>201189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187564</v>
+        <v>187752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215551</v>
+        <v>214583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7387178268903979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6886907019511883</v>
+        <v>0.6893813514963141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7914527329655675</v>
+        <v>0.7878982220202914</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -1704,19 +1704,19 @@
         <v>241810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>226877</v>
+        <v>225909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>256105</v>
+        <v>256101</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7578310817067461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7110299766465453</v>
+        <v>0.7079955232513191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8026300968286283</v>
+        <v>0.8026177260611486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -1725,19 +1725,19 @@
         <v>442999</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419942</v>
+        <v>423046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>461007</v>
+        <v>463625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7490295742718787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7100442681917634</v>
+        <v>0.7152914794081746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7794775846039367</v>
+        <v>0.7839030758467743</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>82724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69786</v>
+        <v>69434</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97555</v>
+        <v>95951</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3888044491807874</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3279937918819706</v>
+        <v>0.3263419053105316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4585100460551258</v>
+        <v>0.4509738634908815</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -1850,19 +1850,19 @@
         <v>103069</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88593</v>
+        <v>89716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118710</v>
+        <v>119256</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4173891936705036</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3587656597756543</v>
+        <v>0.3633122488854815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.480729217540959</v>
+        <v>0.4829387848746687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>197</v>
@@ -1871,19 +1871,19 @@
         <v>185793</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167668</v>
+        <v>164082</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>209216</v>
+        <v>204870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.404159264796654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3647314421148</v>
+        <v>0.3569313534713272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4551120594233489</v>
+        <v>0.4456577872764489</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>130041</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115210</v>
+        <v>116814</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142979</v>
+        <v>143331</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6111955508192126</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5414899539448741</v>
+        <v>0.5490261365091188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6720062081180294</v>
+        <v>0.6736580946894684</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>155</v>
@@ -1921,19 +1921,19 @@
         <v>143869</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128228</v>
+        <v>127682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158345</v>
+        <v>157222</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5826108063294965</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5192707824590415</v>
+        <v>0.5170612151253314</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.641234340224346</v>
+        <v>0.6366877511145187</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>289</v>
@@ -1942,19 +1942,19 @@
         <v>273910</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>250487</v>
+        <v>254833</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292035</v>
+        <v>295621</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.595840735203346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.544887940576651</v>
+        <v>0.5543422127235511</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6352685578852</v>
+        <v>0.6430686465286729</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>62519</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50197</v>
+        <v>51749</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72648</v>
+        <v>74526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4931890583360041</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3959863602197051</v>
+        <v>0.4082320638089965</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5730967293122489</v>
+        <v>0.5879130981443331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -2067,19 +2067,19 @@
         <v>126870</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111000</v>
+        <v>110854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140769</v>
+        <v>140549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6093449012362723</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5331201578662659</v>
+        <v>0.5324171854989272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6760994613323577</v>
+        <v>0.6750420923644804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -2088,19 +2088,19 @@
         <v>189389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169900</v>
+        <v>170966</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207049</v>
+        <v>207021</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5653878543184653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5072055938445064</v>
+        <v>0.5103885649492529</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6181089314764232</v>
+        <v>0.6180242060148579</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>64245</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54116</v>
+        <v>52238</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76567</v>
+        <v>75015</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5068109416639959</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4269032706877512</v>
+        <v>0.4120869018556669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6040136397802949</v>
+        <v>0.5917679361910037</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>70</v>
@@ -2138,19 +2138,19 @@
         <v>81338</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67439</v>
+        <v>67659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97208</v>
+        <v>97354</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3906550987637277</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3239005386676421</v>
+        <v>0.3249579076355196</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.466879842133734</v>
+        <v>0.4675828145010728</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>134</v>
@@ -2159,19 +2159,19 @@
         <v>145583</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>127923</v>
+        <v>127951</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>165072</v>
+        <v>164006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4346121456815347</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3818910685235768</v>
+        <v>0.3819757939851422</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4927944061554936</v>
+        <v>0.4896114350507471</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>333652</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1359212612573793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>433</v>
@@ -2284,19 +2284,19 @@
         <v>442221</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1613393267078163</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>768</v>
@@ -2305,19 +2305,19 @@
         <v>775873</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1493303500795586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2121090</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2085007</v>
+        <v>2080315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2154693</v>
+        <v>2152026</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8640787387426208</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8493791635638377</v>
+        <v>0.8474678686347529</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.877767482933446</v>
+        <v>0.8766810375667938</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2246</v>
@@ -2355,19 +2355,19 @@
         <v>2298716</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2258096</v>
+        <v>2262342</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2334743</v>
+        <v>2337214</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8386606732921836</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8238407633225295</v>
+        <v>0.8253899391962424</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8518047030437905</v>
+        <v>0.852706202810789</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4318</v>
@@ -2376,19 +2376,19 @@
         <v>4419806</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4366598</v>
+        <v>4369026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4472294</v>
+        <v>4473947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8506696499204414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.840428711891577</v>
+        <v>0.8408960827433242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8607717703177199</v>
+        <v>0.8610899268058231</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>11181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6308</v>
+        <v>5686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18643</v>
+        <v>18392</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02948692729695027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01663710303552619</v>
+        <v>0.01499670479559127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04916683675126089</v>
+        <v>0.04850512918809644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2744,19 +2744,19 @@
         <v>14937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8539</v>
+        <v>8953</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24451</v>
+        <v>24136</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04026199879179281</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02301625259398592</v>
+        <v>0.02413132171086942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06590801663810893</v>
+        <v>0.06505790271240486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2765,19 +2765,19 @@
         <v>26118</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17204</v>
+        <v>17573</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37740</v>
+        <v>37736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03481567876048994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0229330597003438</v>
+        <v>0.02342570309939607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05030834922755952</v>
+        <v>0.05030368083359982</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>367995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360533</v>
+        <v>360784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372868</v>
+        <v>373490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9705130727030498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9508331632487392</v>
+        <v>0.9514948708119039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9833628969644739</v>
+        <v>0.9850032952044087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>348</v>
@@ -2815,19 +2815,19 @@
         <v>356054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346540</v>
+        <v>346855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>362452</v>
+        <v>362038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9597380012082072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9340919833618905</v>
+        <v>0.9349420972875951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9769837474060139</v>
+        <v>0.9758686782891306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>709</v>
@@ -2836,19 +2836,19 @@
         <v>724048</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>712426</v>
+        <v>712430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>732962</v>
+        <v>732593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.96518432123951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9496916507724402</v>
+        <v>0.9496963191664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.977066940299656</v>
+        <v>0.9765742969006032</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>21344</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13485</v>
+        <v>14024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31144</v>
+        <v>33084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03573671142793799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02257821100645806</v>
+        <v>0.02348055531021934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05214343258742094</v>
+        <v>0.05539163875387328</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -2961,19 +2961,19 @@
         <v>34345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24037</v>
+        <v>24332</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48289</v>
+        <v>47918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06146036343802421</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04301537507734445</v>
+        <v>0.04354339044762437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08641404182281448</v>
+        <v>0.08574936678393799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2982,19 +2982,19 @@
         <v>55689</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42331</v>
+        <v>42211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73244</v>
+        <v>72168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04817068663325078</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03661574745717344</v>
+        <v>0.03651196322840759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06335602257401705</v>
+        <v>0.06242506572819985</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>575923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>566123</v>
+        <v>564183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>583782</v>
+        <v>583243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.964263288572062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478565674125791</v>
+        <v>0.9446083612461268</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9774217889935423</v>
+        <v>0.9765194446897808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>490</v>
@@ -3032,19 +3032,19 @@
         <v>524465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510521</v>
+        <v>510892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534773</v>
+        <v>534478</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9385396365619758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9135859581771858</v>
+        <v>0.9142506332160621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9569846249226557</v>
+        <v>0.9564566095523758</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1048</v>
@@ -3053,19 +3053,19 @@
         <v>1100387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1082832</v>
+        <v>1083908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1113745</v>
+        <v>1113865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9518293133667493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9366439774259827</v>
+        <v>0.9375749342717999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633842525428261</v>
+        <v>0.963488036771592</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>45513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32606</v>
+        <v>33253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60826</v>
+        <v>61218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0775808163895659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05557999604540553</v>
+        <v>0.05668256805200431</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1036835262015681</v>
+        <v>0.1043508523162447</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3178,19 +3178,19 @@
         <v>47973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34969</v>
+        <v>35341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63733</v>
+        <v>65016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07274713666199219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05302787878815068</v>
+        <v>0.05359096767926435</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09664507097029675</v>
+        <v>0.09859059283905959</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3199,19 +3199,19 @@
         <v>93486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74896</v>
+        <v>75227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115343</v>
+        <v>116429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07502277447239526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06010387250506036</v>
+        <v>0.06036947992459969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09256263766071186</v>
+        <v>0.09343480185883173</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>541138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525825</v>
+        <v>525433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>554045</v>
+        <v>553398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9224191836104341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8963164737984319</v>
+        <v>0.8956491476837553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9444200039545944</v>
+        <v>0.9433174319479956</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>577</v>
@@ -3249,19 +3249,19 @@
         <v>611481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595721</v>
+        <v>594438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>624485</v>
+        <v>624113</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9272528633380078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9033549290297033</v>
+        <v>0.9014094071609404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9469721212118494</v>
+        <v>0.9464090323207357</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1099</v>
@@ -3270,19 +3270,19 @@
         <v>1152618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1130761</v>
+        <v>1129675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1171208</v>
+        <v>1170877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9249772255276048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9074373623392882</v>
+        <v>0.9065651981411682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9398961274949397</v>
+        <v>0.9396305200754003</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>76483</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58845</v>
+        <v>58520</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96702</v>
+        <v>96258</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1408945049868262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.10840231772621</v>
+        <v>0.1078028123732607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1781404204332341</v>
+        <v>0.1773235609590856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -3395,19 +3395,19 @@
         <v>87086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70420</v>
+        <v>69944</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105758</v>
+        <v>107370</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1545852879579717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1250014436014274</v>
+        <v>0.1241567675997952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1877303272882109</v>
+        <v>0.190591483657181</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -3416,19 +3416,19 @@
         <v>163569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139548</v>
+        <v>140508</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187638</v>
+        <v>191380</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1478668253979564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1261521855551146</v>
+        <v>0.1270199287715826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1696254609622979</v>
+        <v>0.1730082231907318</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>466356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>446137</v>
+        <v>446581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483994</v>
+        <v>484319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8591054950131738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8218595795667656</v>
+        <v>0.8226764390409144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.89159768227379</v>
+        <v>0.8921971876267393</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -3466,19 +3466,19 @@
         <v>476265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457593</v>
+        <v>455981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>492931</v>
+        <v>493407</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8454147120420283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8122696727117891</v>
+        <v>0.809408516342819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8749985563985725</v>
+        <v>0.8758432324002048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>835</v>
@@ -3487,19 +3487,19 @@
         <v>942621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>918552</v>
+        <v>914810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>966642</v>
+        <v>965682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8521331746020435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8303745390377021</v>
+        <v>0.8269917768092682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8738478144448855</v>
+        <v>0.8729800712284166</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>94671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78657</v>
+        <v>77070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113931</v>
+        <v>113943</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2620207740291881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2176983949636387</v>
+        <v>0.213307955029546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3153285414151907</v>
+        <v>0.3153603962869169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -3612,19 +3612,19 @@
         <v>94281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77198</v>
+        <v>76551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113288</v>
+        <v>111671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2413046115681433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1975821150446727</v>
+        <v>0.1959256868214068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2899513432371858</v>
+        <v>0.2858123423736044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>173</v>
@@ -3633,19 +3633,19 @@
         <v>188952</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164573</v>
+        <v>164320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213976</v>
+        <v>213542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2512576724443716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2188393993323525</v>
+        <v>0.2185039365822146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2845334126877334</v>
+        <v>0.2839553793563696</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>266639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>247379</v>
+        <v>247367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>282653</v>
+        <v>284240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7379792259708119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6846714585848094</v>
+        <v>0.684639603713083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7823016050363613</v>
+        <v>0.786692044970454</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>267</v>
@@ -3683,19 +3683,19 @@
         <v>296434</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>277427</v>
+        <v>279044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>313517</v>
+        <v>314164</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7586953884318567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7100486567628144</v>
+        <v>0.7141876576263957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8024178849553277</v>
+        <v>0.8040743131785932</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>513</v>
@@ -3704,19 +3704,19 @@
         <v>563073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>538049</v>
+        <v>538483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>587452</v>
+        <v>587705</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7487423275556283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7154665873122665</v>
+        <v>0.7160446206436304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7811606006676475</v>
+        <v>0.7814960634177853</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>105454</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90721</v>
+        <v>88650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124023</v>
+        <v>123890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4017443293803837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3456158031453735</v>
+        <v>0.3377279129595339</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4724862046725689</v>
+        <v>0.4719789832202001</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -3829,19 +3829,19 @@
         <v>127569</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110540</v>
+        <v>108911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146448</v>
+        <v>144677</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4243958778046152</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3677449611358658</v>
+        <v>0.3623237168025587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4872040717542791</v>
+        <v>0.4813107572959819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>215</v>
@@ -3850,19 +3850,19 @@
         <v>233023</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>205529</v>
+        <v>210902</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>256160</v>
+        <v>257995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.413836418187534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.365008743504009</v>
+        <v>0.3745511538540059</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4549275018394868</v>
+        <v>0.458186736392994</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>157036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138467</v>
+        <v>138600</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171769</v>
+        <v>173840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5982556706196163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5275137953274313</v>
+        <v>0.5280210167798005</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6543841968546267</v>
+        <v>0.6622720870404661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -3900,19 +3900,19 @@
         <v>173020</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>154141</v>
+        <v>155912</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190049</v>
+        <v>191678</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5756041221953848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5127959282457207</v>
+        <v>0.5186892427040181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6322550388641341</v>
+        <v>0.6376762831974412</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>315</v>
@@ -3921,19 +3921,19 @@
         <v>330056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>306919</v>
+        <v>305084</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>357550</v>
+        <v>352177</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.586163581812466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5450724981605132</v>
+        <v>0.541813263607006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.634991256495991</v>
+        <v>0.6254488461459941</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>82501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68255</v>
+        <v>69478</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97483</v>
+        <v>96702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4461291992565367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3690938516267767</v>
+        <v>0.3757069363455242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5271441827340121</v>
+        <v>0.5229215864479134</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -4046,19 +4046,19 @@
         <v>167507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148298</v>
+        <v>149022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>185512</v>
+        <v>184996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5539023667571554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4903821550104558</v>
+        <v>0.4927755800097718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6134391700030222</v>
+        <v>0.6117328082086284</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -4067,19 +4067,19 @@
         <v>250008</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>226696</v>
+        <v>228132</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>272854</v>
+        <v>274306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5130066846761521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.46517169755738</v>
+        <v>0.4681178146573285</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5598856095435313</v>
+        <v>0.5628642233612384</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>102425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87443</v>
+        <v>88224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>116671</v>
+        <v>115448</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5538708007434634</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4728558172659879</v>
+        <v>0.4770784135520865</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6309061483732235</v>
+        <v>0.6242930636544758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>121</v>
@@ -4117,19 +4117,19 @@
         <v>134906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>116901</v>
+        <v>117417</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>154115</v>
+        <v>153391</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4460976332428446</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3865608299969778</v>
+        <v>0.3882671917913716</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5096178449895442</v>
+        <v>0.5072244199902282</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -4138,19 +4138,19 @@
         <v>237331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>214485</v>
+        <v>213033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>260643</v>
+        <v>259207</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4869933153238479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4401143904564687</v>
+        <v>0.4371357766387617</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5348283024426199</v>
+        <v>0.5318821853426715</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>437147</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1499820557806096</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>527</v>
@@ -4263,19 +4263,19 @@
         <v>573698</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1823392284034309</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>921</v>
@@ -4284,19 +4284,19 @@
         <v>1010844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1667790201167212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2477512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2437856</v>
+        <v>2432591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2519174</v>
+        <v>2516005</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8500179442193904</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8364121937555166</v>
+        <v>0.8346058522911284</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8643118172291605</v>
+        <v>0.8632244113032372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2388</v>
@@ -4334,19 +4334,19 @@
         <v>2572623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2529436</v>
+        <v>2531983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2615484</v>
+        <v>2616698</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.817660771596569</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8039345466954779</v>
+        <v>0.8047441562785131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8312834189316664</v>
+        <v>0.8316690126750482</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4730</v>
@@ -4355,19 +4355,19 @@
         <v>5050136</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4990669</v>
+        <v>4986193</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5105943</v>
+        <v>5105883</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8332209798832788</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8234095194593113</v>
+        <v>0.822671004813079</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8424286751681028</v>
+        <v>0.8424186975142075</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>13498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7703</v>
+        <v>7702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23467</v>
+        <v>21916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03825649070076101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0218327867252924</v>
+        <v>0.02182839135424047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06650783594342263</v>
+        <v>0.06211360571351717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4723,19 +4723,19 @@
         <v>10385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5606</v>
+        <v>4843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18066</v>
+        <v>18148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02950892279138434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01592963961365404</v>
+        <v>0.01376082505088931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05133476395917554</v>
+        <v>0.05156746833178973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4744,19 +4744,19 @@
         <v>23883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16276</v>
+        <v>15202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35829</v>
+        <v>35319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03388835064683082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02309409074663765</v>
+        <v>0.02157016517789469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05083764700096744</v>
+        <v>0.0501142218084915</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>339342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>329373</v>
+        <v>330924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>345137</v>
+        <v>345138</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.961743509299239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9334921640565776</v>
+        <v>0.9378863942864828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9781672132747076</v>
+        <v>0.9781716086457595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>348</v>
@@ -4794,19 +4794,19 @@
         <v>341545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333864</v>
+        <v>333782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346324</v>
+        <v>347087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9704910772086157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9486652360408245</v>
+        <v>0.9484325316682097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9840703603863459</v>
+        <v>0.9862391749491104</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -4815,19 +4815,19 @@
         <v>680887</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>668941</v>
+        <v>669451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>688494</v>
+        <v>689568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9661116493531692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9491623529990307</v>
+        <v>0.9498857781915085</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769059092533623</v>
+        <v>0.9784298348221053</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>21474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13108</v>
+        <v>13253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32769</v>
+        <v>32621</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04355152984450161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0265845058567196</v>
+        <v>0.02687762956148898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06645811460557093</v>
+        <v>0.06615699489860916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -4940,19 +4940,19 @@
         <v>17310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10772</v>
+        <v>10217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28147</v>
+        <v>26735</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03484928518225454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02168564660479307</v>
+        <v>0.02056913000246262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05666501162375916</v>
+        <v>0.053822096792736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -4961,19 +4961,19 @@
         <v>38785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27857</v>
+        <v>28150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51823</v>
+        <v>54010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0391843976023147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02814442225855735</v>
+        <v>0.02843996535778836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05235676196170774</v>
+        <v>0.05456636498025423</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>471604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460309</v>
+        <v>460457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>479970</v>
+        <v>479825</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9564484701554984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9335418853944293</v>
+        <v>0.933843005101391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9734154941432807</v>
+        <v>0.973122370438511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>492</v>
@@ -5011,19 +5011,19 @@
         <v>479410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>468573</v>
+        <v>469985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485948</v>
+        <v>486503</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9651507148177455</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9433349883762435</v>
+        <v>0.946177903207264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9783143533952073</v>
+        <v>0.9794308699975374</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>947</v>
@@ -5032,19 +5032,19 @@
         <v>951012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937974</v>
+        <v>935787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>961940</v>
+        <v>961647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9608156023976853</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9476432380382925</v>
+        <v>0.945433635019746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9718555777414428</v>
+        <v>0.9715600346422119</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>23216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14701</v>
+        <v>15099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35189</v>
+        <v>34499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0416163105242784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0263532841059065</v>
+        <v>0.02706564937129143</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06307806060285344</v>
+        <v>0.06184255044003558</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -5157,19 +5157,19 @@
         <v>37998</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27374</v>
+        <v>27652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50429</v>
+        <v>52072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06630500323823404</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04776661247699044</v>
+        <v>0.04825179992485252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08799719837196976</v>
+        <v>0.09086372999403597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -5178,19 +5178,19 @@
         <v>61214</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47820</v>
+        <v>47749</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78600</v>
+        <v>78590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05412679096293737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04228350481515747</v>
+        <v>0.04222082827661899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06950011408076159</v>
+        <v>0.06949050480158128</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>534644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522671</v>
+        <v>523361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543159</v>
+        <v>542761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9583836894757216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9369219393971467</v>
+        <v>0.9381574495599645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9736467158940946</v>
+        <v>0.9729343506287086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>537</v>
@@ -5228,19 +5228,19 @@
         <v>535082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522651</v>
+        <v>521008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545706</v>
+        <v>545428</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9336949967617659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9120028016280304</v>
+        <v>0.9091362700059642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9522333875230097</v>
+        <v>0.9517482000751475</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1046</v>
@@ -5249,19 +5249,19 @@
         <v>1069726</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1052340</v>
+        <v>1052350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1083120</v>
+        <v>1083191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9458732090370626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9304998859192386</v>
+        <v>0.9305094951984185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9577164951848427</v>
+        <v>0.957779171723381</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>50749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37973</v>
+        <v>38389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65445</v>
+        <v>67727</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09904682125016739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07411214740740481</v>
+        <v>0.07492384057900457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1277303514313031</v>
+        <v>0.1321827937676504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5374,19 +5374,19 @@
         <v>51505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38319</v>
+        <v>39918</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66443</v>
+        <v>66476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09452448495098489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0703249909741713</v>
+        <v>0.07325991872006316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1219397113902979</v>
+        <v>0.1220009450449493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -5395,19 +5395,19 @@
         <v>102254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83662</v>
+        <v>83721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123847</v>
+        <v>121990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09671611842059614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07913117042636722</v>
+        <v>0.07918726114399349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1171403398783895</v>
+        <v>0.1153833672397727</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>461623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>446927</v>
+        <v>444645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474399</v>
+        <v>473983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9009531787498326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8722696485686967</v>
+        <v>0.8678172062323493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9258878525925952</v>
+        <v>0.9250761594209951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>458</v>
@@ -5445,19 +5445,19 @@
         <v>493379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478441</v>
+        <v>478408</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>506565</v>
+        <v>504966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9054755150490151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8780602886097021</v>
+        <v>0.8779990549550507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9296750090258287</v>
+        <v>0.9267400812799369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>874</v>
@@ -5466,19 +5466,19 @@
         <v>955002</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933409</v>
+        <v>935266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>973594</v>
+        <v>973535</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9032838815794039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8828596601216103</v>
+        <v>0.8846166327602272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9208688295736327</v>
+        <v>0.9208127388560065</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>64254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49483</v>
+        <v>49707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81089</v>
+        <v>82206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1731894609146466</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1333757662066195</v>
+        <v>0.133979669985726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2185666424220567</v>
+        <v>0.2215785365125819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -5591,19 +5591,19 @@
         <v>68937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54102</v>
+        <v>55437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86598</v>
+        <v>87455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1741397919966557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1366645377137765</v>
+        <v>0.1400370320650701</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.218751512340222</v>
+        <v>0.2209159261129791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -5612,19 +5612,19 @@
         <v>133191</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110694</v>
+        <v>111910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153109</v>
+        <v>158256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1736800371170674</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1443444093390379</v>
+        <v>0.14593036875951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1996537639733262</v>
+        <v>0.2063650215957882</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>306748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>289913</v>
+        <v>288796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>321519</v>
+        <v>321295</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8268105390853534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7814333575779433</v>
+        <v>0.778421463487418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8666242337933804</v>
+        <v>0.8660203300142739</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>286</v>
@@ -5662,19 +5662,19 @@
         <v>326936</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>309275</v>
+        <v>308418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341771</v>
+        <v>340436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8258602080033443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7812484876597779</v>
+        <v>0.7790840738870207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8633354622862235</v>
+        <v>0.8599629679349299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>560</v>
@@ -5683,19 +5683,19 @@
         <v>633684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>613766</v>
+        <v>608619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>656181</v>
+        <v>654965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8263199628829326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8003462360266737</v>
+        <v>0.7936349784042117</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8556555906609621</v>
+        <v>0.85406963124049</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>58326</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45740</v>
+        <v>44571</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72484</v>
+        <v>73199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2534524981597245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1987633866963036</v>
+        <v>0.1936813798965412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3149747481517283</v>
+        <v>0.3180843969617551</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -5808,19 +5808,19 @@
         <v>76410</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61943</v>
+        <v>61804</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92331</v>
+        <v>90545</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2758991950527267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2236628832205575</v>
+        <v>0.2231620229888302</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3333887137337767</v>
+        <v>0.3269387837582351</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -5829,19 +5829,19 @@
         <v>134736</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115387</v>
+        <v>114135</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155907</v>
+        <v>156487</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2657122020321948</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2275548699059621</v>
+        <v>0.2250854084019895</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3074639871612174</v>
+        <v>0.308608099283368</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>171799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157641</v>
+        <v>156926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184385</v>
+        <v>185554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7465475018402755</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6850252518482716</v>
+        <v>0.6819156030382451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8012366133036961</v>
+        <v>0.8063186201034589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -5879,19 +5879,19 @@
         <v>200538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184617</v>
+        <v>186403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>215005</v>
+        <v>215144</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7241008049472732</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6666112862662233</v>
+        <v>0.6730612162417648</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7763371167794425</v>
+        <v>0.7768379770111697</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -5900,19 +5900,19 @@
         <v>372338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>351167</v>
+        <v>350587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>391687</v>
+        <v>392939</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7342877979678052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6925360128387827</v>
+        <v>0.6913919007166319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7724451300940379</v>
+        <v>0.7749145915980103</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>52208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42374</v>
+        <v>42320</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63240</v>
+        <v>64099</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3550188600821523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.288150122050807</v>
+        <v>0.2877773034998783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4300404371492407</v>
+        <v>0.4358793525291862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6025,19 +6025,19 @@
         <v>71044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54556</v>
+        <v>55714</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88246</v>
+        <v>88021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3117638443313095</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2394068219199734</v>
+        <v>0.2444881614128012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3872501931720504</v>
+        <v>0.3862625662345576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -6046,19 +6046,19 @@
         <v>123252</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104662</v>
+        <v>103772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>143593</v>
+        <v>143759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.328729268580299</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2791469300005185</v>
+        <v>0.2767729851266112</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3829787081452816</v>
+        <v>0.3834231904036015</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>94849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83817</v>
+        <v>82958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>104683</v>
+        <v>104737</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6449811399178477</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5699595628507594</v>
+        <v>0.5641206474708143</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7118498779491933</v>
+        <v>0.7122226965001217</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>118</v>
@@ -6096,19 +6096,19 @@
         <v>156835</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139633</v>
+        <v>139858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>173323</v>
+        <v>172165</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6882361556686905</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6127498068279496</v>
+        <v>0.6137374337654421</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7605931780800265</v>
+        <v>0.7555118385871985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>231</v>
@@ -6117,19 +6117,19 @@
         <v>251684</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>231343</v>
+        <v>231177</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>270274</v>
+        <v>271164</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.671270731419701</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6170212918547184</v>
+        <v>0.6165768095963983</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7208530699994814</v>
+        <v>0.7232270148733884</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>283725</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1064900429551888</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>298</v>
@@ -6242,19 +6242,19 @@
         <v>333590</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.116342249229173</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>571</v>
@@ -6263,19 +6263,19 @@
         <v>617315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1115969076466571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2380608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2344499</v>
+        <v>2349624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2410278</v>
+        <v>2410423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8935099570448112</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8799572907613916</v>
+        <v>0.881880894639205</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9046459552032403</v>
+        <v>0.9047001767450146</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2429</v>
@@ -6313,19 +6313,19 @@
         <v>2533725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2496795</v>
+        <v>2497606</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2569739</v>
+        <v>2567513</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.883657750770827</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8707780810427789</v>
+        <v>0.8710607542798994</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8962178985991277</v>
+        <v>0.8954414034531546</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4686</v>
@@ -6334,19 +6334,19 @@
         <v>4914333</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4861808</v>
+        <v>4863504</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4961499</v>
+        <v>4960240</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8884030923533429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8789077337492672</v>
+        <v>0.8792143364436277</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.896929620381259</v>
+        <v>0.8967020508901989</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>8148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23185</v>
+        <v>25057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02150818723302868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003203923025598309</v>
+        <v>0.003214864145750501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0611987872830799</v>
+        <v>0.06613848522632464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6702,19 +6702,19 @@
         <v>6345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1296</v>
+        <v>1314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17723</v>
+        <v>16584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01848515389152777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003775359615741004</v>
+        <v>0.003828021942496149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.051634693767162</v>
+        <v>0.048316524007153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6723,19 +6723,19 @@
         <v>14493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5678</v>
+        <v>5362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32607</v>
+        <v>32623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02007121916640353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007863822806713707</v>
+        <v>0.007426146326873719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04515653347233738</v>
+        <v>0.04517785032285955</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>370706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355669</v>
+        <v>353797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377640</v>
+        <v>377636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9784918127669713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9388012127169201</v>
+        <v>0.9338615147736755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967960769744016</v>
+        <v>0.9967851358542494</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -6773,19 +6773,19 @@
         <v>336895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325517</v>
+        <v>326656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341944</v>
+        <v>341926</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9815148461084722</v>
+        <v>0.9815148461084724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9483653062328379</v>
+        <v>0.9516834759928472</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996224640384259</v>
+        <v>0.9961719780575037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -6794,19 +6794,19 @@
         <v>707601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>689487</v>
+        <v>689471</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>716416</v>
+        <v>716732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9799287808335965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9548434665276627</v>
+        <v>0.9548221496771417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9921361771932871</v>
+        <v>0.9925738536731264</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>19931</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10823</v>
+        <v>10307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33879</v>
+        <v>33144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04469837455250365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02427295495508803</v>
+        <v>0.02311562016402777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07597962308498619</v>
+        <v>0.07433225613444154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -6919,19 +6919,19 @@
         <v>19573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11633</v>
+        <v>11342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30991</v>
+        <v>29840</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04055613193025245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02410368237341125</v>
+        <v>0.02350057560443441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0642154357115878</v>
+        <v>0.06183106027828917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -6940,19 +6940,19 @@
         <v>39503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25269</v>
+        <v>26598</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55336</v>
+        <v>57085</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04254535347749506</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02721428591173138</v>
+        <v>0.02864666135893051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0595967661809606</v>
+        <v>0.06148104556393276</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>425962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>412014</v>
+        <v>412749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435070</v>
+        <v>435586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9553016254474964</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9240203769150137</v>
+        <v>0.9256677438655583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9757270450449119</v>
+        <v>0.976884379835972</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -6990,19 +6990,19 @@
         <v>463036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451618</v>
+        <v>452769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>470976</v>
+        <v>471267</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9594438680697475</v>
+        <v>0.9594438680697476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9357845642884118</v>
+        <v>0.9381689397217109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9758963176265888</v>
+        <v>0.9764994243955655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -7011,19 +7011,19 @@
         <v>888999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873166</v>
+        <v>871417</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>903233</v>
+        <v>901904</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9574546465225049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9404032338190392</v>
+        <v>0.938518954436067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9727857140882685</v>
+        <v>0.9713533386410694</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>23044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14701</v>
+        <v>14756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33842</v>
+        <v>34935</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03833537847501833</v>
+        <v>0.03833537847501832</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02445624009979658</v>
+        <v>0.02454684276369588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05629754785835286</v>
+        <v>0.05811690129599959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -7136,19 +7136,19 @@
         <v>28263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21038</v>
+        <v>20764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37604</v>
+        <v>38299</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04654003811821423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03464339474216611</v>
+        <v>0.03419179451472738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06192226411125758</v>
+        <v>0.06306626681605632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -7157,19 +7157,19 @@
         <v>51307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39337</v>
+        <v>39042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65125</v>
+        <v>65615</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04245861337509906</v>
+        <v>0.04245861337509904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03255307291137039</v>
+        <v>0.03230850107310353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0538930644546969</v>
+        <v>0.0542990398631235</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>578080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>567282</v>
+        <v>566189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>586423</v>
+        <v>586368</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9616646215249817</v>
+        <v>0.9616646215249814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9437024521416472</v>
+        <v>0.9418830987040004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9755437599002035</v>
+        <v>0.9754531572363041</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>784</v>
@@ -7207,19 +7207,19 @@
         <v>579019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>569678</v>
+        <v>568983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>586244</v>
+        <v>586518</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9534599618817857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9380777358887424</v>
+        <v>0.9369337331839439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9653566052578338</v>
+        <v>0.9658082054852728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1290</v>
@@ -7228,19 +7228,19 @@
         <v>1157098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1143280</v>
+        <v>1142790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1169068</v>
+        <v>1169363</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9575413866249011</v>
+        <v>0.957541386624901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.946106935545303</v>
+        <v>0.9457009601368768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9674469270886297</v>
+        <v>0.9676914989268968</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>51598</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38020</v>
+        <v>38772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66631</v>
+        <v>67419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07607036354298985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05605125005563878</v>
+        <v>0.05716069519768043</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09823247756138918</v>
+        <v>0.09939462248962806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -7353,19 +7353,19 @@
         <v>49963</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39930</v>
+        <v>39807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61077</v>
+        <v>61592</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06922362655573736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05532301123598686</v>
+        <v>0.05515291773977004</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08462290572095922</v>
+        <v>0.08533616160040908</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -7374,19 +7374,19 @@
         <v>101561</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84600</v>
+        <v>85085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120346</v>
+        <v>121813</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07254073438547828</v>
+        <v>0.0725407343854783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06042639936867309</v>
+        <v>0.06077266159353337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08595771765847318</v>
+        <v>0.08700558800568604</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>626701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>611668</v>
+        <v>610880</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>640279</v>
+        <v>639527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9239296364570103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9017675224386109</v>
+        <v>0.9006053775103715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9439487499443612</v>
+        <v>0.9428393048023195</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1037</v>
@@ -7424,19 +7424,19 @@
         <v>671794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>660680</v>
+        <v>660165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681827</v>
+        <v>681950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9307763734442626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.915377094279041</v>
+        <v>0.914663838399591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9446769887640131</v>
+        <v>0.9448470822602302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1631</v>
@@ -7445,19 +7445,19 @@
         <v>1298495</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1279710</v>
+        <v>1278243</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1315456</v>
+        <v>1314971</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9274592656145215</v>
+        <v>0.9274592656145219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9140422823415267</v>
+        <v>0.9129944119943135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9395736006313268</v>
+        <v>0.9392273384064665</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>70291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56407</v>
+        <v>57931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86729</v>
+        <v>86677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1184630283172298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0950642169656272</v>
+        <v>0.09763339363215533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1461673426949941</v>
+        <v>0.1460789001534761</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -7570,19 +7570,19 @@
         <v>60434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49168</v>
+        <v>50370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71025</v>
+        <v>73186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1014254847437516</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08251729351199327</v>
+        <v>0.08453410471254963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.119199634128243</v>
+        <v>0.1228269057141481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -7591,19 +7591,19 @@
         <v>130725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114295</v>
+        <v>112720</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150630</v>
+        <v>150048</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1099263925785088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09611064983809828</v>
+        <v>0.09478642406624765</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1266648854358671</v>
+        <v>0.1261752833303867</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>523064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506626</v>
+        <v>506678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>536948</v>
+        <v>535424</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8815369716827703</v>
+        <v>0.8815369716827701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8538326573050059</v>
+        <v>0.8539210998465239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9049357830343727</v>
+        <v>0.9023666063678449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>880</v>
@@ -7641,19 +7641,19 @@
         <v>535415</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>524824</v>
+        <v>522663</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>546681</v>
+        <v>545479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8985745152562482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.880800365871757</v>
+        <v>0.8771730942858519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9174827064880068</v>
+        <v>0.9154658952874503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1441</v>
@@ -7662,19 +7662,19 @@
         <v>1058479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1038574</v>
+        <v>1039156</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1074909</v>
+        <v>1076484</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8900736074214911</v>
+        <v>0.8900736074214912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8733351145641332</v>
+        <v>0.8738247166696138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9038893501619019</v>
+        <v>0.9052135759337524</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>71842</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59139</v>
+        <v>59793</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84499</v>
+        <v>84502</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1806236814762142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1486872508258608</v>
+        <v>0.1503291390435556</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2124456064227872</v>
+        <v>0.2124526933552693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -7787,19 +7787,19 @@
         <v>98578</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86493</v>
+        <v>86096</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110997</v>
+        <v>111171</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2298264439517128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2016494832652056</v>
+        <v>0.2007252208978842</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2587806597339808</v>
+        <v>0.2591861659404323</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>295</v>
@@ -7808,19 +7808,19 @@
         <v>170420</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>153180</v>
+        <v>153118</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188099</v>
+        <v>188737</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2061530097859199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.185297542500261</v>
+        <v>0.1852230938549469</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2275384806125715</v>
+        <v>0.2283099072352663</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>325902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313245</v>
+        <v>313242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>338605</v>
+        <v>337951</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8193763185237859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7875543935772129</v>
+        <v>0.7875473066447309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8513127491741392</v>
+        <v>0.8496708609564445</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>618</v>
@@ -7858,19 +7858,19 @@
         <v>330347</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>317928</v>
+        <v>317754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342432</v>
+        <v>342829</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7701735560482872</v>
+        <v>0.7701735560482873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7412193402660192</v>
+        <v>0.7408138340595676</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7983505167347944</v>
+        <v>0.7992747791021158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1068</v>
@@ -7879,19 +7879,19 @@
         <v>656249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>638570</v>
+        <v>637932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>673489</v>
+        <v>673551</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.79384699021408</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7724615193874287</v>
+        <v>0.7716900927647337</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8147024574997391</v>
+        <v>0.8147769061450533</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>107484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93752</v>
+        <v>93316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121058</v>
+        <v>121300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3554271892034961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3100167880904611</v>
+        <v>0.3085764555292114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4003107867904685</v>
+        <v>0.4011132453629869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>342</v>
@@ -8004,19 +8004,19 @@
         <v>174377</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159992</v>
+        <v>159226</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189567</v>
+        <v>190020</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3911668746131514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3588993773589823</v>
+        <v>0.3571811941550895</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4252426043303594</v>
+        <v>0.4262574987371494</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>503</v>
@@ -8025,19 +8025,19 @@
         <v>281861</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262236</v>
+        <v>263929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>305268</v>
+        <v>301989</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3767214403974866</v>
+        <v>0.3767214403974867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3504909249371735</v>
+        <v>0.3527539108357513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4080052534188868</v>
+        <v>0.4036226847826418</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>194925</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>181351</v>
+        <v>181109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208657</v>
+        <v>209093</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.644572810796504</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5996892132095312</v>
+        <v>0.5988867546370129</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6899832119095389</v>
+        <v>0.691423544470788</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>508</v>
@@ -8075,19 +8075,19 @@
         <v>271409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>256219</v>
+        <v>255766</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>285794</v>
+        <v>286560</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6088331253868488</v>
+        <v>0.6088331253868486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5747573956696407</v>
+        <v>0.5737425012628505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6411006226410177</v>
+        <v>0.6428188058449105</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>793</v>
@@ -8096,19 +8096,19 @@
         <v>466335</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>442928</v>
+        <v>446207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>485960</v>
+        <v>484267</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6232785596025134</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5919947465811132</v>
+        <v>0.5963773152173583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6495090750628264</v>
+        <v>0.6472460891642489</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>352339</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1036999417719546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>772</v>
@@ -8221,19 +8221,19 @@
         <v>437533</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1206837478788075</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1206</v>
@@ -8242,19 +8242,19 @@
         <v>789872</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1124672495151152</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3045339</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3010926</v>
+        <v>3011219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3080458</v>
+        <v>3079866</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8963000582280451</v>
+        <v>0.8963000582280455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8861717065488807</v>
+        <v>0.8862578460653759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9066361786262287</v>
+        <v>0.9064618982853345</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4445</v>
@@ -8292,19 +8292,19 @@
         <v>3187915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3154988</v>
+        <v>3154466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3216346</v>
+        <v>3219852</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8793162521211925</v>
+        <v>0.8793162521211926</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8702338628297552</v>
+        <v>0.8700898965006479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8871580898910707</v>
+        <v>0.8881252247692928</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7264</v>
@@ -8313,19 +8313,19 @@
         <v>6233253</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6184629</v>
+        <v>6183117</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6277171</v>
+        <v>6276965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8875327504848849</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.880609227553634</v>
+        <v>0.8803940144265161</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8937860648947658</v>
+        <v>0.8937566491159743</v>
       </c>
     </row>
     <row r="27">
